--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Comp-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Comp-Itgb3.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5265343333333333</v>
+        <v>0.6145506666666667</v>
       </c>
       <c r="H2">
-        <v>1.579603</v>
+        <v>1.843652</v>
       </c>
       <c r="I2">
-        <v>0.01258949710924503</v>
+        <v>0.01499332276776837</v>
       </c>
       <c r="J2">
-        <v>0.01274042434033606</v>
+        <v>0.0150466009943551</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N2">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O2">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P2">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q2">
-        <v>2.510554664874</v>
+        <v>4.125163155991111</v>
       </c>
       <c r="R2">
-        <v>22.594991983866</v>
+        <v>37.12646840391999</v>
       </c>
       <c r="S2">
-        <v>0.006563659397130042</v>
+        <v>0.00949150443737885</v>
       </c>
       <c r="T2">
-        <v>0.006830743705694299</v>
+        <v>0.00965164804929846</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5265343333333333</v>
+        <v>0.6145506666666667</v>
       </c>
       <c r="H3">
-        <v>1.579603</v>
+        <v>1.843652</v>
       </c>
       <c r="I3">
-        <v>0.01258949710924503</v>
+        <v>0.01499332276776837</v>
       </c>
       <c r="J3">
-        <v>0.01274042434033606</v>
+        <v>0.0150466009943551</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P3">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q3">
-        <v>1.623227422585334</v>
+        <v>1.894568751834667</v>
       </c>
       <c r="R3">
-        <v>14.609046803268</v>
+        <v>17.051118766512</v>
       </c>
       <c r="S3">
-        <v>0.004243807981956896</v>
+        <v>0.004359174906534727</v>
       </c>
       <c r="T3">
-        <v>0.004416494352769499</v>
+        <v>0.004432724259972588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5265343333333333</v>
+        <v>0.6145506666666667</v>
       </c>
       <c r="H4">
-        <v>1.579603</v>
+        <v>1.843652</v>
       </c>
       <c r="I4">
-        <v>0.01258949710924503</v>
+        <v>0.01499332276776837</v>
       </c>
       <c r="J4">
-        <v>0.01274042434033606</v>
+        <v>0.0150466009943551</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N4">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O4">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P4">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q4">
-        <v>0.09548787890722221</v>
+        <v>0.1533363319897778</v>
       </c>
       <c r="R4">
-        <v>0.859390910165</v>
+        <v>1.380026987908</v>
       </c>
       <c r="S4">
-        <v>0.0002496459935608931</v>
+        <v>0.0003528084636794687</v>
       </c>
       <c r="T4">
-        <v>0.0002598044316427353</v>
+        <v>0.0003587611576978094</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5265343333333333</v>
+        <v>0.6145506666666667</v>
       </c>
       <c r="H5">
-        <v>1.579603</v>
+        <v>1.843652</v>
       </c>
       <c r="I5">
-        <v>0.01258949710924503</v>
+        <v>0.01499332276776837</v>
       </c>
       <c r="J5">
-        <v>0.01274042434033606</v>
+        <v>0.0150466009943551</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N5">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O5">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P5">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q5">
-        <v>0.3984364280483333</v>
+        <v>0.2560503843393334</v>
       </c>
       <c r="R5">
-        <v>2.39061856829</v>
+        <v>1.536302306036</v>
       </c>
       <c r="S5">
-        <v>0.001041682557925749</v>
+        <v>0.0005891411484221497</v>
       </c>
       <c r="T5">
-        <v>0.0007227133671799083</v>
+        <v>0.0003993875472847153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5265343333333333</v>
+        <v>0.6145506666666667</v>
       </c>
       <c r="H6">
-        <v>1.579603</v>
+        <v>1.843652</v>
       </c>
       <c r="I6">
-        <v>0.01258949710924503</v>
+        <v>0.01499332276776837</v>
       </c>
       <c r="J6">
-        <v>0.01274042434033606</v>
+        <v>0.0150466009943551</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N6">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O6">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P6">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q6">
-        <v>0.1876898325515556</v>
+        <v>0.08722481492177779</v>
       </c>
       <c r="R6">
-        <v>1.689208492964</v>
+        <v>0.785023334296</v>
       </c>
       <c r="S6">
-        <v>0.0004907011786714511</v>
+        <v>0.0002006938117531725</v>
       </c>
       <c r="T6">
-        <v>0.0005106684830496208</v>
+        <v>0.0002040799801015216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>118.760237</v>
       </c>
       <c r="I7">
-        <v>0.9465236900694383</v>
+        <v>0.9658062179400816</v>
       </c>
       <c r="J7">
-        <v>0.9578709423436643</v>
+        <v>0.9692381751729973</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N7">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O7">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P7">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q7">
-        <v>188.752532757846</v>
+        <v>265.7255024642244</v>
       </c>
       <c r="R7">
-        <v>1698.772794820614</v>
+        <v>2391.529522178019</v>
       </c>
       <c r="S7">
-        <v>0.4934795297238869</v>
+        <v>0.6114024319500989</v>
       </c>
       <c r="T7">
-        <v>0.5135598890192745</v>
+        <v>0.6217182037473844</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>118.760237</v>
       </c>
       <c r="I8">
-        <v>0.9465236900694383</v>
+        <v>0.9658062179400816</v>
       </c>
       <c r="J8">
-        <v>0.9578709423436643</v>
+        <v>0.9692381751729973</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P8">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q8">
         <v>122.0400780519747</v>
@@ -948,10 +948,10 @@
         <v>1098.360702467772</v>
       </c>
       <c r="S8">
-        <v>0.3190647534346875</v>
+        <v>0.2807995462400263</v>
       </c>
       <c r="T8">
-        <v>0.332047936123233</v>
+        <v>0.2855372834298415</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>118.760237</v>
       </c>
       <c r="I9">
-        <v>0.9465236900694383</v>
+        <v>0.9658062179400816</v>
       </c>
       <c r="J9">
-        <v>0.9578709423436643</v>
+        <v>0.9692381751729973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N9">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O9">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P9">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q9">
-        <v>7.179122304559444</v>
+        <v>9.877275715708111</v>
       </c>
       <c r="R9">
-        <v>64.61210074103499</v>
+        <v>88.89548144137299</v>
       </c>
       <c r="S9">
-        <v>0.01876928402984302</v>
+        <v>0.02272642383821871</v>
       </c>
       <c r="T9">
-        <v>0.01953303195520744</v>
+        <v>0.02310987112241693</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>118.760237</v>
       </c>
       <c r="I10">
-        <v>0.9465236900694383</v>
+        <v>0.9658062179400816</v>
       </c>
       <c r="J10">
-        <v>0.9578709423436643</v>
+        <v>0.9692381751729973</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N10">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O10">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P10">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q10">
-        <v>29.95588424715167</v>
+        <v>16.49367902840683</v>
       </c>
       <c r="R10">
-        <v>179.73530548291</v>
+        <v>98.962074170441</v>
       </c>
       <c r="S10">
-        <v>0.07831744271062299</v>
+        <v>0.0379499723446001</v>
       </c>
       <c r="T10">
-        <v>0.05433619128942772</v>
+        <v>0.02572685071281429</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>118.760237</v>
       </c>
       <c r="I11">
-        <v>0.9465236900694383</v>
+        <v>0.9658062179400816</v>
       </c>
       <c r="J11">
-        <v>0.9578709423436643</v>
+        <v>0.9692381751729973</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N11">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O11">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P11">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q11">
-        <v>14.11119692499511</v>
+        <v>5.618652377125112</v>
       </c>
       <c r="R11">
-        <v>127.000772324956</v>
+        <v>50.56787139412599</v>
       </c>
       <c r="S11">
-        <v>0.0368926801703978</v>
+        <v>0.01292784356713748</v>
       </c>
       <c r="T11">
-        <v>0.03839389395652164</v>
+        <v>0.01314596616054005</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.09530433333333334</v>
+        <v>0.1788413333333333</v>
       </c>
       <c r="H12">
-        <v>0.285913</v>
+        <v>0.536524</v>
       </c>
       <c r="I12">
-        <v>0.002278737687251528</v>
+        <v>0.004363229885387348</v>
       </c>
       <c r="J12">
-        <v>0.002306055980153561</v>
+        <v>0.004378734463931031</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N12">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O12">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P12">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q12">
-        <v>0.454418113854</v>
+        <v>1.200470065448889</v>
       </c>
       <c r="R12">
-        <v>4.089763024686</v>
+        <v>10.80423058904</v>
       </c>
       <c r="S12">
-        <v>0.001188042532972931</v>
+        <v>0.002762137283370316</v>
       </c>
       <c r="T12">
-        <v>0.001236385614060099</v>
+        <v>0.002808740921823537</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.09530433333333334</v>
+        <v>0.1788413333333333</v>
       </c>
       <c r="H13">
-        <v>0.285913</v>
+        <v>0.536524</v>
       </c>
       <c r="I13">
-        <v>0.002278737687251528</v>
+        <v>0.004363229885387348</v>
       </c>
       <c r="J13">
-        <v>0.002306055980153561</v>
+        <v>0.004378734463931031</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P13">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q13">
-        <v>0.2938091546253334</v>
+        <v>0.5513413621493334</v>
       </c>
       <c r="R13">
-        <v>2.644282391628</v>
+        <v>4.962072259344001</v>
       </c>
       <c r="S13">
-        <v>0.0007681422936935686</v>
+        <v>0.001268570184369739</v>
       </c>
       <c r="T13">
-        <v>0.0007993990577907145</v>
+        <v>0.001289973894670758</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.09530433333333334</v>
+        <v>0.1788413333333333</v>
       </c>
       <c r="H14">
-        <v>0.285913</v>
+        <v>0.536524</v>
       </c>
       <c r="I14">
-        <v>0.002278737687251528</v>
+        <v>0.004363229885387348</v>
       </c>
       <c r="J14">
-        <v>0.002306055980153561</v>
+        <v>0.004378734463931031</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N14">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O14">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P14">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q14">
-        <v>0.01728359969055556</v>
+        <v>0.04462264146622222</v>
       </c>
       <c r="R14">
-        <v>0.155552397215</v>
+        <v>0.401603773196</v>
       </c>
       <c r="S14">
-        <v>4.518669245182214E-05</v>
+        <v>0.0001026713328584588</v>
       </c>
       <c r="T14">
-        <v>4.7025400980037E-05</v>
+        <v>0.0001044036354868812</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.09530433333333334</v>
+        <v>0.1788413333333333</v>
       </c>
       <c r="H15">
-        <v>0.285913</v>
+        <v>0.536524</v>
       </c>
       <c r="I15">
-        <v>0.002278737687251528</v>
+        <v>0.004363229885387348</v>
       </c>
       <c r="J15">
-        <v>0.002306055980153561</v>
+        <v>0.004378734463931031</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N15">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O15">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P15">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q15">
-        <v>0.07211821859833334</v>
+        <v>0.07451361558866666</v>
       </c>
       <c r="R15">
-        <v>0.43270931159</v>
+        <v>0.4470816935320001</v>
       </c>
       <c r="S15">
-        <v>0.000188547745974289</v>
+        <v>0.0001714468704050685</v>
       </c>
       <c r="T15">
-        <v>0.0001308133416754141</v>
+        <v>0.0001162263835145595</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.09530433333333334</v>
+        <v>0.1788413333333333</v>
       </c>
       <c r="H16">
-        <v>0.285913</v>
+        <v>0.536524</v>
       </c>
       <c r="I16">
-        <v>0.002278737687251528</v>
+        <v>0.004363229885387348</v>
       </c>
       <c r="J16">
-        <v>0.002306055980153561</v>
+        <v>0.004378734463931031</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N16">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O16">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P16">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q16">
-        <v>0.03397243680488889</v>
+        <v>0.02538342735022222</v>
       </c>
       <c r="R16">
-        <v>0.305751931244</v>
+        <v>0.228450846152</v>
       </c>
       <c r="S16">
-        <v>8.881842215891624E-05</v>
+        <v>5.840421438376608E-05</v>
       </c>
       <c r="T16">
-        <v>9.243256564729635E-05</v>
+        <v>5.938962843529514E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.4863575</v>
+        <v>0.435404</v>
       </c>
       <c r="H17">
-        <v>2.972715</v>
+        <v>0.870808</v>
       </c>
       <c r="I17">
-        <v>0.03553898058478239</v>
+        <v>0.01062264360038242</v>
       </c>
       <c r="J17">
-        <v>0.02397668942315387</v>
+        <v>0.007106927185115398</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N17">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O17">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P17">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q17">
-        <v>7.087062550455</v>
+        <v>2.922643544613333</v>
       </c>
       <c r="R17">
-        <v>42.52237530273</v>
+        <v>17.53586126768</v>
       </c>
       <c r="S17">
-        <v>0.01852860061490713</v>
+        <v>0.006724651395251111</v>
       </c>
       <c r="T17">
-        <v>0.01285503653454256</v>
+        <v>0.004558741201980359</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.4863575</v>
+        <v>0.435404</v>
       </c>
       <c r="H18">
-        <v>2.972715</v>
+        <v>0.870808</v>
       </c>
       <c r="I18">
-        <v>0.03553898058478239</v>
+        <v>0.01062264360038242</v>
       </c>
       <c r="J18">
-        <v>0.02397668942315387</v>
+        <v>0.007106927185115398</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P18">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q18">
-        <v>4.58222019159</v>
+        <v>1.342286092208</v>
       </c>
       <c r="R18">
-        <v>27.49332114954</v>
+        <v>8.053716553248</v>
       </c>
       <c r="S18">
-        <v>0.01197987561914259</v>
+        <v>0.003088438909845534</v>
       </c>
       <c r="T18">
-        <v>0.008311568799181301</v>
+        <v>0.002093698673815997</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.4863575</v>
+        <v>0.435404</v>
       </c>
       <c r="H19">
-        <v>2.972715</v>
+        <v>0.870808</v>
       </c>
       <c r="I19">
-        <v>0.03553898058478239</v>
+        <v>0.01062264360038242</v>
       </c>
       <c r="J19">
-        <v>0.02397668942315387</v>
+        <v>0.007106927185115398</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N19">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O19">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P19">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q19">
-        <v>0.2695534098875</v>
+        <v>0.1086375069053333</v>
       </c>
       <c r="R19">
-        <v>1.617320459325</v>
+        <v>0.651825041432</v>
       </c>
       <c r="S19">
-        <v>0.000704727443935315</v>
+        <v>0.000249961841475336</v>
       </c>
       <c r="T19">
-        <v>0.0004889358471785847</v>
+        <v>0.0001694528502193006</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.4863575</v>
+        <v>0.435404</v>
       </c>
       <c r="H20">
-        <v>2.972715</v>
+        <v>0.870808</v>
       </c>
       <c r="I20">
-        <v>0.03553898058478239</v>
+        <v>0.01062264360038242</v>
       </c>
       <c r="J20">
-        <v>0.02397668942315387</v>
+        <v>0.007106927185115398</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N20">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O20">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P20">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q20">
-        <v>1.1247490156125</v>
+        <v>0.181409552686</v>
       </c>
       <c r="R20">
-        <v>4.49899606245</v>
+        <v>0.725638210744</v>
       </c>
       <c r="S20">
-        <v>0.002940573072966034</v>
+        <v>0.0004174015691479699</v>
       </c>
       <c r="T20">
-        <v>0.001360101789700463</v>
+        <v>0.0001886418213827275</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.4863575</v>
+        <v>0.435404</v>
       </c>
       <c r="H21">
-        <v>2.972715</v>
+        <v>0.870808</v>
       </c>
       <c r="I21">
-        <v>0.03553898058478239</v>
+        <v>0.01062264360038242</v>
       </c>
       <c r="J21">
-        <v>0.02397668942315387</v>
+        <v>0.007106927185115398</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N21">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O21">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P21">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q21">
-        <v>0.52983095807</v>
+        <v>0.06179805079733334</v>
       </c>
       <c r="R21">
-        <v>3.17898574842</v>
+        <v>0.370788304784</v>
       </c>
       <c r="S21">
-        <v>0.00138520383383132</v>
+        <v>0.0001421898846624715</v>
       </c>
       <c r="T21">
-        <v>0.0009610464525509596</v>
+        <v>9.639263771701264E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1283596666666666</v>
+        <v>0.1727486666666667</v>
       </c>
       <c r="H22">
-        <v>0.3850789999999999</v>
+        <v>0.518246</v>
       </c>
       <c r="I22">
-        <v>0.003069094549282932</v>
+        <v>0.004214585806380427</v>
       </c>
       <c r="J22">
-        <v>0.003105887912692157</v>
+        <v>0.004229562183601108</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N22">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O22">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P22">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q22">
-        <v>0.612028389282</v>
+        <v>1.159573121684444</v>
       </c>
       <c r="R22">
-        <v>5.508255503538</v>
+        <v>10.43615809516</v>
       </c>
       <c r="S22">
-        <v>0.001600102935349856</v>
+        <v>0.002668038332968391</v>
       </c>
       <c r="T22">
-        <v>0.001665213319704416</v>
+        <v>0.002713054304693472</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1283596666666666</v>
+        <v>0.1727486666666667</v>
       </c>
       <c r="H23">
-        <v>0.3850789999999999</v>
+        <v>0.518246</v>
       </c>
       <c r="I23">
-        <v>0.003069094549282932</v>
+        <v>0.004214585806380427</v>
       </c>
       <c r="J23">
-        <v>0.003105887912692157</v>
+        <v>0.004229562183601108</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O23">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P23">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q23">
-        <v>0.3957138551026667</v>
+        <v>0.5325585725306667</v>
       </c>
       <c r="R23">
-        <v>3.561424695924</v>
+        <v>4.793027152776</v>
       </c>
       <c r="S23">
-        <v>0.00103456459242226</v>
+        <v>0.001225353243785701</v>
       </c>
       <c r="T23">
-        <v>0.001076662445481634</v>
+        <v>0.001246027784437494</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1283596666666666</v>
+        <v>0.1727486666666667</v>
       </c>
       <c r="H24">
-        <v>0.3850789999999999</v>
+        <v>0.518246</v>
       </c>
       <c r="I24">
-        <v>0.003069094549282932</v>
+        <v>0.004214585806380427</v>
       </c>
       <c r="J24">
-        <v>0.003105887912692157</v>
+        <v>0.004229562183601108</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N24">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O24">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P24">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q24">
-        <v>0.02327823948277778</v>
+        <v>0.04310246223711111</v>
       </c>
       <c r="R24">
-        <v>0.2095041553449999</v>
+        <v>0.387922160134</v>
       </c>
       <c r="S24">
-        <v>6.085923460162783E-05</v>
+        <v>9.917358322938924E-05</v>
       </c>
       <c r="T24">
-        <v>6.333568037826774E-05</v>
+        <v>0.0001008468707393038</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1283596666666666</v>
+        <v>0.1727486666666667</v>
       </c>
       <c r="H25">
-        <v>0.3850789999999999</v>
+        <v>0.518246</v>
       </c>
       <c r="I25">
-        <v>0.003069094549282932</v>
+        <v>0.004214585806380427</v>
       </c>
       <c r="J25">
-        <v>0.003105887912692157</v>
+        <v>0.004229562183601108</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N25">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O25">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P25">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q25">
-        <v>0.09713168516166666</v>
+        <v>0.07197512734633334</v>
       </c>
       <c r="R25">
-        <v>0.58279011097</v>
+        <v>0.431850764078</v>
       </c>
       <c r="S25">
-        <v>0.0002539436033759683</v>
+        <v>0.000165606114171864</v>
       </c>
       <c r="T25">
-        <v>0.0001761846113993654</v>
+        <v>0.0001122668479898129</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1283596666666666</v>
+        <v>0.1727486666666667</v>
       </c>
       <c r="H26">
-        <v>0.3850789999999999</v>
+        <v>0.518246</v>
       </c>
       <c r="I26">
-        <v>0.003069094549282932</v>
+        <v>0.004214585806380427</v>
       </c>
       <c r="J26">
-        <v>0.003105887912692157</v>
+        <v>0.004229562183601108</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N26">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O26">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P26">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q26">
-        <v>0.04575542907244444</v>
+        <v>0.02451867892311111</v>
       </c>
       <c r="R26">
-        <v>0.411798861652</v>
+        <v>0.220668110308</v>
       </c>
       <c r="S26">
-        <v>0.0001196241835332192</v>
+        <v>5.641453222508078E-05</v>
       </c>
       <c r="T26">
-        <v>0.0001244918557284741</v>
+        <v>5.73663757410255E-05</v>
       </c>
     </row>
   </sheetData>
